--- a/Validation/suseptability_validation.xlsx
+++ b/Validation/suseptability_validation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elipman\Repos\covid_risk_score\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F665AD-C647-4BB7-AC9B-2F3A0D6FC89E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0546AF-2FE5-4F4A-995A-EC0F80285B34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5E45A368-C3FF-4107-9259-89F536AFC9FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5E45A368-C3FF-4107-9259-89F536AFC9FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="3" r:id="rId1"/>
-    <sheet name="baseline" sheetId="1" r:id="rId2"/>
-    <sheet name="Kidney disease" sheetId="2" r:id="rId3"/>
+    <sheet name="baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="Kidney disease" sheetId="2" r:id="rId2"/>
+    <sheet name="Male + all comorbidities" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>Sex</t>
   </si>
@@ -41,30 +42,12 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Hospital - MRP</t>
-  </si>
-  <si>
-    <t>Hospital - COVER</t>
-  </si>
-  <si>
-    <t>ICU - MPR</t>
-  </si>
-  <si>
-    <t>ICU - COVER</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Death - MRP</t>
-  </si>
-  <si>
-    <t>Death - COVER</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
@@ -72,9 +55,6 @@
   </si>
   <si>
     <t>w/o kidney disease</t>
-  </si>
-  <si>
-    <t>w/ kidney disease</t>
   </si>
   <si>
     <t> To develop and externally validate COVID-19 Estimated Risk (COVER) scores that quantify a patient’s risk of hospital admission (COVER-H), requiring intensive services (COVER-I), or fatality (COVER-F) in the 30-days following COVID-19 diagnosis.</t>
@@ -106,7 +86,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hospital - MRP </t>
+    <t>MRP April 2020</t>
+  </si>
+  <si>
+    <t>COVER</t>
+  </si>
+  <si>
+    <t>Hospitalization</t>
+  </si>
+  <si>
+    <t>ICU</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>MPR June 2020</t>
+  </si>
+  <si>
+    <t>MRP April</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>w kidney disease</t>
+  </si>
+  <si>
+    <t>MRP June</t>
   </si>
 </sst>
 </file>
@@ -165,13 +172,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,568 +495,943 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601321AF-2A38-4F63-B46D-E54026BA162D}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.73</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.95</v>
+      </c>
+      <c r="G3">
+        <v>0.67</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>4.2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>1.8</v>
+      </c>
+      <c r="G4">
+        <v>1.2</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>0.16</v>
+      </c>
+      <c r="J4">
+        <v>0.12</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E5">
+        <v>2.9</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>1.9</v>
+      </c>
+      <c r="J5">
+        <v>1.4</v>
+      </c>
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>6.9</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2.9</v>
+      </c>
+      <c r="H6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>7.8</v>
+      </c>
+      <c r="J6">
+        <v>5.9</v>
+      </c>
+      <c r="K6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1.9</v>
+      </c>
+      <c r="D7">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>1.7</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>7.6</v>
+      </c>
+      <c r="D8">
+        <v>3.3</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+      <c r="F8">
+        <v>3.2</v>
+      </c>
+      <c r="G8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>0.27</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>3.9</v>
+      </c>
+      <c r="F9">
+        <v>5.5</v>
+      </c>
+      <c r="G9">
+        <v>2.9</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3.2</v>
+      </c>
+      <c r="J9">
+        <v>2.4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>7.2</v>
+      </c>
+      <c r="G10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H10">
+        <v>1.6</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>7.9</v>
+      </c>
+      <c r="K10">
+        <v>9.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7331BF5-56CD-48E3-A36A-C0BFC4F0C473}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:L5" si="0">(D4*(100-D3))/(D3*(100-D4))</f>
+        <v>10.24775707384403</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6216216216216215</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2246938546230761</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6602894285013496</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.007153075822603</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5015045135406218</v>
+      </c>
+      <c r="J5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7515783144603667</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:L8" si="1">(D7*(100-D6))/(D6*(100-D7))</f>
+        <v>10.126984126984127</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6235632183908044</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2503934754614394</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7058823529411766</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4943820224719095</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4329004329004329</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3814311058545234</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8058608058608059</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1440092165898617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:L11" si="2">(D10*(100-D9))/(D9*(100-D10))</f>
+        <v>10.62962962962963</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5090543259557343</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2212634140944796</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>5.9087221095334685</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4619364375461936</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>6.0893550893550898</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7328347551580292</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2212634140944796</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C22C358-1CB0-47F2-82E8-4E7B019A09BD}">
+  <dimension ref="A2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3.2</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>1.2</v>
+      </c>
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>6.3</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1.6</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>6.2</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>35.4</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>21.4</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>10.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F66982-1162-4B62-B470-FA12B076A255}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601321AF-2A38-4F63-B46D-E54026BA162D}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.4</v>
-      </c>
-      <c r="E2">
-        <v>0.95</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>4.2</v>
-      </c>
-      <c r="D3">
-        <v>0.9</v>
-      </c>
-      <c r="E3">
-        <v>1.8</v>
-      </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>0.16</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>2.9</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-      <c r="G4">
-        <v>1.9</v>
-      </c>
-      <c r="H4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>6.9</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G5">
-        <v>7.8</v>
-      </c>
-      <c r="H5">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>1.9</v>
-      </c>
-      <c r="D6">
-        <v>0.6</v>
-      </c>
-      <c r="E6">
-        <v>1.7</v>
-      </c>
-      <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>7.6</v>
-      </c>
-      <c r="D7">
-        <v>1.2</v>
-      </c>
-      <c r="E7">
-        <v>3.2</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.27</v>
-      </c>
-      <c r="H7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>3.9</v>
-      </c>
-      <c r="E8">
-        <v>5.5</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>7.2</v>
-      </c>
-      <c r="F9">
-        <v>1.6</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>9.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7331BF5-56CD-48E3-A36A-C0BFC4F0C473}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:I4" si="0">(D3*(100-D2))/(D2*(100-D3))</f>
-        <v>10.24775707384403</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2246938546230761</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>5.6602894285013496</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5015045135406218</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>6.1757220763482126</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:I7" si="1">(D6*(100-D5))/(D5*(100-D6))</f>
-        <v>10.126984126984127</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2503934754614394</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>5.7058823529411766</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4329004329004329</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3814311058545234</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1440092165898617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>70</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F9" s="2">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>34</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:I10" si="2">(D9*(100-D8))/(D8*(100-D9))</f>
-        <v>10.62962962962963</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2212634140944796</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>1.4619364375461936</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="2"/>
-        <v>6.0893550893550898</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2212634140944796</v>
       </c>
     </row>
   </sheetData>

--- a/Validation/suseptability_validation.xlsx
+++ b/Validation/suseptability_validation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elipman\Repos\covid_risk_score\Validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elipman\Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F665AD-C647-4BB7-AC9B-2F3A0D6FC89E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C9E113-F079-4FEC-B0A1-589EB447FAAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5E45A368-C3FF-4107-9259-89F536AFC9FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5E45A368-C3FF-4107-9259-89F536AFC9FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="3" r:id="rId1"/>
-    <sheet name="baseline" sheetId="1" r:id="rId2"/>
-    <sheet name="Kidney disease" sheetId="2" r:id="rId3"/>
+    <sheet name="Baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="Kidney disease" sheetId="2" r:id="rId2"/>
+    <sheet name="Male + all comorbidities" sheetId="4" r:id="rId3"/>
+    <sheet name="Info on COVER app" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1F9074B5-C9D4-4CE4-A824-FBBDB758BBDA}</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{1F9074B5-C9D4-4CE4-A824-FBBDB758BBDA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Note that the adjustment of ICU for comorbidities has not changed from April, just the base rate</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
   <si>
     <t>Sex</t>
   </si>
@@ -41,28 +60,10 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Hospital - MRP</t>
-  </si>
-  <si>
-    <t>Hospital - COVER</t>
-  </si>
-  <si>
-    <t>ICU - MPR</t>
-  </si>
-  <si>
-    <t>ICU - COVER</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Death - MRP</t>
-  </si>
-  <si>
-    <t>Death - COVER</t>
   </si>
   <si>
     <t>OR</t>
@@ -72,12 +73,6 @@
   </si>
   <si>
     <t>w/o kidney disease</t>
-  </si>
-  <si>
-    <t>w/ kidney disease</t>
-  </si>
-  <si>
-    <t> To develop and externally validate COVID-19 Estimated Risk (COVER) scores that quantify a patient’s risk of hospital admission (COVER-H), requiring intensive services (COVER-I), or fatality (COVER-F) in the 30-days following COVID-19 diagnosis.</t>
   </si>
   <si>
     <r>
@@ -106,14 +101,44 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hospital - MRP </t>
+    <t>MRP April 2020</t>
+  </si>
+  <si>
+    <t>COVER</t>
+  </si>
+  <si>
+    <t>Hospitalization</t>
+  </si>
+  <si>
+    <t>ICU</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>MPR June 2020</t>
+  </si>
+  <si>
+    <t>MRP April</t>
+  </si>
+  <si>
+    <t>w kidney disease</t>
+  </si>
+  <si>
+    <t>MRP June</t>
+  </si>
+  <si>
+    <t>Stated goal: To develop and externally validate COVID-19 Estimated Risk (COVER) scores that quantify a patient’s risk of hospital admission (COVER-H), requiring intensive services (COVER-I), or fatality (COVER-F) in the 30-days following COVID-19 diagnosis.</t>
+  </si>
+  <si>
+    <t>http://evidence.ohdsi.org:3838/Covid19CoverPrediction/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +169,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,13 +196,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,6 +229,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Erin Lipman" id="{81CE83C6-5B8B-4C3A-A100-1B46D1E831D4}" userId="S::ELipman@mathematica-mpr.com::c709206b-1260-4a78-bf9b-8aa5a208ba5a" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,569 +532,1036 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2020-06-24T17:49:24.38" personId="{81CE83C6-5B8B-4C3A-A100-1B46D1E831D4}" id="{1F9074B5-C9D4-4CE4-A824-FBBDB758BBDA}">
+    <text>Note that the adjustment of ICU for comorbidities has not changed from April, just the base rate</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F66982-1162-4B62-B470-FA12B076A255}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601321AF-2A38-4F63-B46D-E54026BA162D}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>4.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>1.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>0.16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E5">
+        <v>2.9</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>1.9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>6.9</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="H6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <v>7.8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="K6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1.9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>1.7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>7.6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+      <c r="F8">
+        <v>3.2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>0.27</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E9">
+        <v>3.9</v>
+      </c>
+      <c r="F9">
+        <v>5.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3.2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>7.2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H10">
+        <v>1.6</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="K10">
+        <v>9.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7331BF5-56CD-48E3-A36A-C0BFC4F0C473}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:L5" si="0">(D4*(100-D3))/(D3*(100-D4))</f>
+        <v>10.24775707384403</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6216216216216215</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2246938546230761</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>5.6602894285013496</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>6.007153075822603</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5015045135406218</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>6.1757220763482126</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7515783144603667</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="G7" s="9">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ref="D8:L8" si="1">(D7*(100-D6))/(D6*(100-D7))</f>
+        <v>10.126984126984127</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6235632183908044</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2503934754614394</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>5.7058823529411766</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4943820224719095</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4329004329004329</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="1"/>
+        <v>6.3814311058545234</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8058608058608059</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1440092165898617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="L9" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G10" s="9">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J10" s="9">
+        <v>34</v>
+      </c>
+      <c r="K10" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L10" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ref="D11:L11" si="2">(D10*(100-D9))/(D9*(100-D10))</f>
+        <v>10.62962962962963</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5090543259557343</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2212634140944796</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9087221095334685</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4619364375461936</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>6.0893550893550898</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7328347551580292</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2212634140944796</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601321AF-2A38-4F63-B46D-E54026BA162D}">
-  <dimension ref="A1:H9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C22C358-1CB0-47F2-82E8-4E7B019A09BD}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+      <c r="B3">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.4</v>
-      </c>
-      <c r="E2">
-        <v>0.95</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3.2</v>
+      </c>
+      <c r="F3">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>1.2</v>
+      </c>
+      <c r="I3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>4.2</v>
-      </c>
-      <c r="D3">
-        <v>0.9</v>
-      </c>
-      <c r="E3">
-        <v>1.8</v>
-      </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>0.16</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>6.3</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="K4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>60</v>
       </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>2.9</v>
-      </c>
-      <c r="E4">
+      <c r="C5">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>6.2</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-      <c r="G4">
-        <v>1.9</v>
-      </c>
-      <c r="H4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="B6">
         <v>80</v>
       </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>6.9</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G5">
-        <v>7.8</v>
-      </c>
-      <c r="H5">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
       <c r="C6">
-        <v>1.9</v>
-      </c>
-      <c r="D6">
-        <v>0.6</v>
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>84</v>
       </c>
       <c r="E6">
-        <v>1.7</v>
+        <v>35.4</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6">
-        <v>5.1999999999999998E-2</v>
+        <v>69</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>7.6</v>
-      </c>
-      <c r="D7">
-        <v>1.2</v>
-      </c>
-      <c r="E7">
-        <v>3.2</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.27</v>
-      </c>
-      <c r="H7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>3.9</v>
-      </c>
-      <c r="E8">
-        <v>5.5</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>7.2</v>
-      </c>
-      <c r="F9">
-        <v>1.6</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>9.1</v>
+        <v>21.4</v>
+      </c>
+      <c r="I6">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>10.9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7331BF5-56CD-48E3-A36A-C0BFC4F0C473}">
-  <dimension ref="A1:I10"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F66982-1162-4B62-B470-FA12B076A255}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:I4" si="0">(D3*(100-D2))/(D2*(100-D3))</f>
-        <v>10.24775707384403</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2246938546230761</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>5.6602894285013496</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5015045135406218</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>6.1757220763482126</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:I7" si="1">(D6*(100-D5))/(D5*(100-D6))</f>
-        <v>10.126984126984127</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2503934754614394</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>5.7058823529411766</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4329004329004329</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3814311058545234</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1440092165898617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+    <row r="1" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>70</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F9" s="2">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>34</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:I10" si="2">(D9*(100-D8))/(D8*(100-D9))</f>
-        <v>10.62962962962963</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2212634140944796</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>1.4619364375461936</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="2"/>
-        <v>6.0893550893550898</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2212634140944796</v>
       </c>
     </row>
   </sheetData>
